--- a/trunk/OSAMS/fileupload/Group 1.xlsx
+++ b/trunk/OSAMS/fileupload/Group 1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="19035" windowHeight="12015"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="SRS_ISYS2132 2012-1 VNMRI Class" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -109,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,7 +720,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -755,7 +754,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -931,14 +929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -952,7 +950,7 @@
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -987,9 +985,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
-        <v>3220646</v>
+        <v>8220646</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1013,9 +1011,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
-        <v>3220658</v>
+        <v>8220658</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1039,9 +1037,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
-        <v>3220670</v>
+        <v>8220670</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1065,9 +1063,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
-        <v>3220677</v>
+        <v>8220677</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1091,9 +1089,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
-        <v>3222055</v>
+        <v>8222055</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1117,9 +1115,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
-        <v>3231181</v>
+        <v>8231181</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>

--- a/trunk/OSAMS/fileupload/Group 1.xlsx
+++ b/trunk/OSAMS/fileupload/Group 1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="19035" windowHeight="12015"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="19035" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="SRS_ISYS2132 2012-1 VNMRI Class" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -109,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +720,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -754,6 +755,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -929,14 +931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -950,7 +952,7 @@
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,7 +987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8220646</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8220658</v>
       </c>
@@ -1037,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8220670</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8220677</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8222055</v>
       </c>
@@ -1115,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8231181</v>
       </c>
